--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.00632761092513</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N2">
-        <v>1.00632761092513</v>
+        <v>0.15815</v>
       </c>
       <c r="O2">
-        <v>0.06664325197255708</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P2">
-        <v>0.06664325197255708</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q2">
-        <v>25.90162468365623</v>
+        <v>1.545722973127778</v>
       </c>
       <c r="R2">
-        <v>25.90162468365623</v>
+        <v>13.91150675815</v>
       </c>
       <c r="S2">
-        <v>0.0004045358896176082</v>
+        <v>1.92890794307856E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004045358896176082</v>
+        <v>1.928907943078561E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6182555656903</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N3">
-        <v>13.6182555656903</v>
+        <v>3.140954</v>
       </c>
       <c r="O3">
-        <v>0.901858229107557</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P3">
-        <v>0.901858229107557</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q3">
-        <v>350.5170092514393</v>
+        <v>30.69898675521711</v>
       </c>
       <c r="R3">
-        <v>350.5170092514393</v>
+        <v>276.290880796954</v>
       </c>
       <c r="S3">
-        <v>0.00547443304794341</v>
+        <v>0.0003830927043594294</v>
       </c>
       <c r="T3">
-        <v>0.00547443304794341</v>
+        <v>0.0003830927043594295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.475634491926978</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N4">
-        <v>0.475634491926978</v>
+        <v>45.75898</v>
       </c>
       <c r="O4">
-        <v>0.03149851891988587</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P4">
-        <v>0.03149851891988587</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q4">
-        <v>12.24224195256695</v>
+        <v>447.2381069421089</v>
       </c>
       <c r="R4">
-        <v>12.24224195256695</v>
+        <v>4025.14296247898</v>
       </c>
       <c r="S4">
-        <v>0.0001912013744188267</v>
+        <v>0.00558108504515795</v>
       </c>
       <c r="T4">
-        <v>0.0001912013744188267</v>
+        <v>0.005581085045157951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9566938861627</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>42.9566938861627</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.00632761092513</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N5">
-        <v>1.00632761092513</v>
+        <v>3.430871</v>
       </c>
       <c r="O5">
-        <v>0.06664325197255708</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P5">
-        <v>0.06664325197255708</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q5">
-        <v>43.22850713170425</v>
+        <v>33.53257111943011</v>
       </c>
       <c r="R5">
-        <v>43.22850713170425</v>
+        <v>301.793140074871</v>
       </c>
       <c r="S5">
-        <v>0.0006751500264151229</v>
+        <v>0.0004184530081301223</v>
       </c>
       <c r="T5">
-        <v>0.0006751500264151229</v>
+        <v>0.0004184530081301223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.6182555656903</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N6">
-        <v>13.6182555656903</v>
+        <v>0.15815</v>
       </c>
       <c r="O6">
-        <v>0.901858229107557</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P6">
-        <v>0.901858229107557</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q6">
-        <v>584.9952355988896</v>
+        <v>2.399895305316667</v>
       </c>
       <c r="R6">
-        <v>584.9952355988896</v>
+        <v>21.59905774785</v>
       </c>
       <c r="S6">
-        <v>0.009136553051993873</v>
+        <v>2.994829731756593E-05</v>
       </c>
       <c r="T6">
-        <v>0.009136553051993873</v>
+        <v>2.994829731756593E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.475634491926978</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N7">
-        <v>0.475634491926978</v>
+        <v>3.140954</v>
       </c>
       <c r="O7">
-        <v>0.03149851891988587</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P7">
-        <v>0.03149851891988587</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q7">
-        <v>20.43168527140772</v>
+        <v>47.66336237000067</v>
       </c>
       <c r="R7">
-        <v>20.43168527140772</v>
+        <v>428.970261330006</v>
       </c>
       <c r="S7">
-        <v>0.0003191054645645951</v>
+        <v>0.0005947911745355547</v>
       </c>
       <c r="T7">
-        <v>0.0003191054645645951</v>
+        <v>0.0005947911745355546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00632761092513</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N8">
-        <v>1.00632761092513</v>
+        <v>45.75898</v>
       </c>
       <c r="O8">
-        <v>0.06664325197255708</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P8">
-        <v>0.06664325197255708</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q8">
-        <v>4169.34375331628</v>
+        <v>694.3835679929134</v>
       </c>
       <c r="R8">
-        <v>4169.34375331628</v>
+        <v>6249.45211193622</v>
       </c>
       <c r="S8">
-        <v>0.06511750536767234</v>
+        <v>0.008665213645201094</v>
       </c>
       <c r="T8">
-        <v>0.06511750536767234</v>
+        <v>0.008665213645201092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.6182555656903</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N9">
-        <v>13.6182555656903</v>
+        <v>3.430871</v>
       </c>
       <c r="O9">
-        <v>0.901858229107557</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P9">
-        <v>0.901858229107557</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q9">
-        <v>56422.17122680124</v>
+        <v>52.06279611790767</v>
       </c>
       <c r="R9">
-        <v>56422.17122680124</v>
+        <v>468.565165061169</v>
       </c>
       <c r="S9">
-        <v>0.8812108703664974</v>
+        <v>0.0006496917152463784</v>
       </c>
       <c r="T9">
-        <v>0.8812108703664974</v>
+        <v>0.0006496917152463783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.475634491926978</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N10">
-        <v>0.475634491926978</v>
+        <v>0.15815</v>
       </c>
       <c r="O10">
-        <v>0.03149851891988587</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P10">
-        <v>0.03149851891988587</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q10">
-        <v>1970.614416466655</v>
+        <v>233.9679139643112</v>
       </c>
       <c r="R10">
-        <v>1970.614416466655</v>
+        <v>2105.7112256788</v>
       </c>
       <c r="S10">
-        <v>0.03077738426816294</v>
+        <v>0.0029196859690716</v>
       </c>
       <c r="T10">
-        <v>0.03077738426816294</v>
+        <v>0.0029196859690716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.00632761092513</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N11">
-        <v>1.00632761092513</v>
+        <v>3.140954</v>
       </c>
       <c r="O11">
-        <v>0.06664325197255708</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P11">
-        <v>0.06664325197255708</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q11">
-        <v>28.56037460532575</v>
+        <v>4646.743314814157</v>
       </c>
       <c r="R11">
-        <v>28.56037460532575</v>
+        <v>41820.68983332741</v>
       </c>
       <c r="S11">
-        <v>0.0004460606888519975</v>
+        <v>0.05798671718810824</v>
       </c>
       <c r="T11">
-        <v>0.0004460606888519975</v>
+        <v>0.05798671718810823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6182555656903</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N12">
-        <v>13.6182555656903</v>
+        <v>45.75898</v>
       </c>
       <c r="O12">
-        <v>0.901858229107557</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P12">
-        <v>0.901858229107557</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q12">
-        <v>386.4968785558983</v>
+        <v>67696.067630317</v>
       </c>
       <c r="R12">
-        <v>386.4968785558983</v>
+        <v>609264.608672853</v>
       </c>
       <c r="S12">
-        <v>0.006036372641122243</v>
+        <v>0.8447793352199049</v>
       </c>
       <c r="T12">
-        <v>0.006036372641122243</v>
+        <v>0.8447793352199048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.475634491926978</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N13">
-        <v>0.475634491926978</v>
+        <v>3.430871</v>
       </c>
       <c r="O13">
-        <v>0.03149851891988587</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P13">
-        <v>0.03149851891988587</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q13">
-        <v>13.49888358142142</v>
+        <v>5075.647998423334</v>
       </c>
       <c r="R13">
-        <v>13.49888358142142</v>
+        <v>45680.83198580999</v>
       </c>
       <c r="S13">
-        <v>0.0002108278127395059</v>
+        <v>0.0633390194144461</v>
       </c>
       <c r="T13">
-        <v>0.0002108278127395059</v>
+        <v>0.06333901941444608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H14">
+        <v>201.070438</v>
+      </c>
+      <c r="I14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05271666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.15815</v>
+      </c>
+      <c r="O14">
+        <v>0.003013014833311122</v>
+      </c>
+      <c r="P14">
+        <v>0.003013014833311122</v>
+      </c>
+      <c r="Q14">
+        <v>3.533254418855555</v>
+      </c>
+      <c r="R14">
+        <v>31.7992897697</v>
+      </c>
+      <c r="S14">
+        <v>4.409148749117098E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.409148749117099E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H15">
+        <v>201.070438</v>
+      </c>
+      <c r="I15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.046984666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.140954</v>
+      </c>
+      <c r="O15">
+        <v>0.05984028449413786</v>
+      </c>
+      <c r="P15">
+        <v>0.05984028449413786</v>
+      </c>
+      <c r="Q15">
+        <v>70.17255516865022</v>
+      </c>
+      <c r="R15">
+        <v>631.552996517852</v>
+      </c>
+      <c r="S15">
+        <v>0.000875683427134641</v>
+      </c>
+      <c r="T15">
+        <v>0.0008756834271346411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H16">
+        <v>201.070438</v>
+      </c>
+      <c r="I16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.25299333333333</v>
+      </c>
+      <c r="N16">
+        <v>45.75898</v>
+      </c>
+      <c r="O16">
+        <v>0.8717830255908123</v>
+      </c>
+      <c r="P16">
+        <v>0.8717830255908123</v>
+      </c>
+      <c r="Q16">
+        <v>1022.308683448138</v>
+      </c>
+      <c r="R16">
+        <v>9200.778151033241</v>
+      </c>
+      <c r="S16">
+        <v>0.01275739168054849</v>
+      </c>
+      <c r="T16">
+        <v>0.01275739168054849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H17">
+        <v>201.070438</v>
+      </c>
+      <c r="I17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.143623666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.430871</v>
+      </c>
+      <c r="O17">
+        <v>0.06536367508173863</v>
+      </c>
+      <c r="P17">
+        <v>0.06536367508173863</v>
+      </c>
+      <c r="Q17">
+        <v>76.64963718794422</v>
+      </c>
+      <c r="R17">
+        <v>689.846734691498</v>
+      </c>
+      <c r="S17">
+        <v>0.0009565109439160373</v>
+      </c>
+      <c r="T17">
+        <v>0.0009565109439160374</v>
       </c>
     </row>
   </sheetData>
